--- a/storage/resources/sample/sample_message.xlsx
+++ b/storage/resources/sample/sample_message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,20 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최현탁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dlumjjang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,26 +37,7 @@
     <t>sunh86</t>
   </si>
   <si>
-    <t>김건우</t>
-  </si>
-  <si>
-    <t>최진영</t>
-  </si>
-  <si>
-    <t>김상구</t>
-  </si>
-  <si>
-    <t>권선희</t>
-  </si>
-  <si>
     <t>willbes</t>
-  </si>
-  <si>
-    <t>홍길동</t>
-  </si>
-  <si>
-    <t>idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -413,90 +386,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>5000005</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>5051746</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>5051745</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5051744</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5051743</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5051742</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
